--- a/plot/v1-get-node.xlsx
+++ b/plot/v1-get-node.xlsx
@@ -19,10 +19,10 @@
     <t>concurrent</t>
   </si>
   <si>
-    <t>Falcon (Hanin)</t>
+    <t>Falcon (Hanin 2021)</t>
   </si>
   <si>
-    <t>Sanic (Alvin)</t>
+    <t>Sanic (Ferdiansyah 2023)</t>
   </si>
   <si>
     <t>Fiber</t>
